--- a/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/regression-test-overview.xlsx
+++ b/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/ut/regression-test-overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220FEB4D-6C11-443B-A62F-354E43DACFEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBD4A5D-363C-4E13-8378-7EAFE3364CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="24000" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1126,7 +1128,7 @@
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Recode</a:t>
+            <a:t>Record</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
             <a:solidFill>
@@ -3091,7 +3093,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <sheetData/>
